--- a/SPA Tool/2_Data/Example Data/Generators.xlsx
+++ b/SPA Tool/2_Data/Example Data/Generators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\VT\CCRCP\19057 - Williston Mixed Use Parking Study\6_Memos &amp; Reports\Shared Parking Analysis Tool\2_Data\Example Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C drive\projects\Shared-Parking-Analysis-Tool\Shared Parking Analysis Tool\2_Data\Example Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29F334-9469-4696-B2DE-9339C2540002}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E31FDC5-A9D7-4CDD-AEB2-D8680784ABB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47550" yWindow="5625" windowWidth="16875" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1179,23 +1181,23 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="24.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.1328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7">
         <v>24</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>252</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>253</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="str">
         <f>INDEX(dbf!$A$3:$CP$1048576,MATCH($B5,dbf!$B$3:$B$1048576,0),$A$1)</f>
         <v>HOME DEPOT U.S.A., INC.</v>
@@ -1337,7 +1339,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="str">
         <f>INDEX(dbf!$A$3:$CP$1048576,MATCH($B6,dbf!$B$3:$B$1048576,0),$A$1)</f>
         <v>WAL-MART STORES, INC.</v>
@@ -1367,106 +1369,106 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
     </row>
   </sheetData>
@@ -1483,109 +1485,109 @@
       <selection activeCell="CR3" sqref="CR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="39.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="33.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="32.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="37.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="44.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="27.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="41" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>44.441644154999999</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>44.441644154999999</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>44.441274112999999</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>44.441644154999999</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="CJ7" s="1"/>
@@ -3099,7 +3101,7 @@
       <c r="CS7" s="2"/>
       <c r="CT7" s="2"/>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="CJ8" s="1"/>
@@ -3109,7 +3111,7 @@
       <c r="CS8" s="2"/>
       <c r="CT8" s="2"/>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="CJ9" s="1"/>
@@ -3119,7 +3121,7 @@
       <c r="CS9" s="2"/>
       <c r="CT9" s="2"/>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="CJ10" s="1"/>
@@ -3129,7 +3131,7 @@
       <c r="CS10" s="2"/>
       <c r="CT10" s="2"/>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="CJ11" s="1"/>
@@ -3139,7 +3141,7 @@
       <c r="CS11" s="2"/>
       <c r="CT11" s="2"/>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="CJ12" s="1"/>
@@ -3149,7 +3151,7 @@
       <c r="CS12" s="2"/>
       <c r="CT12" s="2"/>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="CJ13" s="1"/>
@@ -3159,7 +3161,7 @@
       <c r="CS13" s="2"/>
       <c r="CT13" s="2"/>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="CJ14" s="1"/>
@@ -3169,7 +3171,7 @@
       <c r="CS14" s="2"/>
       <c r="CT14" s="2"/>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="CJ15" s="1"/>
@@ -3179,7 +3181,7 @@
       <c r="CS15" s="2"/>
       <c r="CT15" s="2"/>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.35">
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="CJ16" s="1"/>
@@ -3189,7 +3191,7 @@
       <c r="CS16" s="2"/>
       <c r="CT16" s="2"/>
     </row>
-    <row r="17" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="CJ17" s="1"/>
@@ -3199,7 +3201,7 @@
       <c r="CS17" s="2"/>
       <c r="CT17" s="2"/>
     </row>
-    <row r="18" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="CJ18" s="1"/>
@@ -3209,7 +3211,7 @@
       <c r="CS18" s="2"/>
       <c r="CT18" s="2"/>
     </row>
-    <row r="19" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="CJ19" s="1"/>
@@ -3219,7 +3221,7 @@
       <c r="CS19" s="2"/>
       <c r="CT19" s="2"/>
     </row>
-    <row r="20" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="CJ20" s="1"/>
@@ -3229,7 +3231,7 @@
       <c r="CS20" s="2"/>
       <c r="CT20" s="2"/>
     </row>
-    <row r="21" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="CJ21" s="1"/>
@@ -3239,7 +3241,7 @@
       <c r="CS21" s="2"/>
       <c r="CT21" s="2"/>
     </row>
-    <row r="22" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="CJ22" s="1"/>
@@ -3249,7 +3251,7 @@
       <c r="CS22" s="2"/>
       <c r="CT22" s="2"/>
     </row>
-    <row r="23" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="CJ23" s="1"/>
@@ -3259,7 +3261,7 @@
       <c r="CS23" s="2"/>
       <c r="CT23" s="2"/>
     </row>
-    <row r="24" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="CJ24" s="1"/>
@@ -3269,7 +3271,7 @@
       <c r="CS24" s="2"/>
       <c r="CT24" s="2"/>
     </row>
-    <row r="25" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="CJ25" s="1"/>
@@ -3279,7 +3281,7 @@
       <c r="CS25" s="2"/>
       <c r="CT25" s="2"/>
     </row>
-    <row r="26" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="CJ26" s="1"/>
@@ -3289,7 +3291,7 @@
       <c r="CS26" s="2"/>
       <c r="CT26" s="2"/>
     </row>
-    <row r="27" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="CJ27" s="1"/>
@@ -3299,7 +3301,7 @@
       <c r="CS27" s="2"/>
       <c r="CT27" s="2"/>
     </row>
-    <row r="28" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="CJ28" s="1"/>
@@ -3309,7 +3311,7 @@
       <c r="CS28" s="2"/>
       <c r="CT28" s="2"/>
     </row>
-    <row r="29" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="CJ29" s="1"/>
@@ -3319,7 +3321,7 @@
       <c r="CS29" s="2"/>
       <c r="CT29" s="2"/>
     </row>
-    <row r="30" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="CJ30" s="1"/>
@@ -3329,7 +3331,7 @@
       <c r="CS30" s="2"/>
       <c r="CT30" s="2"/>
     </row>
-    <row r="31" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="CJ31" s="1"/>
@@ -3339,7 +3341,7 @@
       <c r="CS31" s="2"/>
       <c r="CT31" s="2"/>
     </row>
-    <row r="32" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="CJ32" s="1"/>
@@ -3349,7 +3351,7 @@
       <c r="CS32" s="2"/>
       <c r="CT32" s="2"/>
     </row>
-    <row r="33" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="CJ33" s="1"/>
@@ -3359,7 +3361,7 @@
       <c r="CS33" s="2"/>
       <c r="CT33" s="2"/>
     </row>
-    <row r="34" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="CJ34" s="1"/>
@@ -3369,7 +3371,7 @@
       <c r="CS34" s="2"/>
       <c r="CT34" s="2"/>
     </row>
-    <row r="35" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="CJ35" s="1"/>
@@ -3379,7 +3381,7 @@
       <c r="CS35" s="2"/>
       <c r="CT35" s="2"/>
     </row>
-    <row r="36" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="CJ36" s="1"/>
@@ -3389,7 +3391,7 @@
       <c r="CS36" s="2"/>
       <c r="CT36" s="2"/>
     </row>
-    <row r="37" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="CJ37" s="1"/>
@@ -3399,7 +3401,7 @@
       <c r="CS37" s="2"/>
       <c r="CT37" s="2"/>
     </row>
-    <row r="38" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="CJ38" s="1"/>
@@ -3409,7 +3411,7 @@
       <c r="CS38" s="2"/>
       <c r="CT38" s="2"/>
     </row>
-    <row r="39" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="CJ39" s="1"/>
@@ -3419,7 +3421,7 @@
       <c r="CS39" s="2"/>
       <c r="CT39" s="2"/>
     </row>
-    <row r="40" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="CJ40" s="1"/>
@@ -3429,7 +3431,7 @@
       <c r="CS40" s="2"/>
       <c r="CT40" s="2"/>
     </row>
-    <row r="41" spans="4:98" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:98" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="CJ41" s="1"/>
@@ -3452,12 +3454,12 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3520,7 +3522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -3540,7 +3542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>20</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>21</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>21</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>22</v>
       </c>
@@ -3620,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>22</v>
       </c>
@@ -3640,7 +3642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>30</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>30</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>31</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>31</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>32</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>32</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>33</v>
       </c>
@@ -3780,7 +3782,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>33</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>34</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>34</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>35</v>
       </c>
@@ -3860,7 +3862,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>35</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>36</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>36</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>37</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>37</v>
       </c>
@@ -3960,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>40</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>40</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>41</v>
       </c>
@@ -4020,7 +4022,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>41</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>42</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>42</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>43</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>43</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>44</v>
       </c>
@@ -4140,7 +4142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>44</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>50</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>50</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>51</v>
       </c>
@@ -4220,7 +4222,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>51</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>60</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>60</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>61</v>
       </c>
@@ -4300,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>61</v>
       </c>
@@ -4320,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>62</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>62</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>63</v>
       </c>
@@ -4380,7 +4382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>63</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>64</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>64</v>
       </c>
@@ -4453,12 +4455,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -4466,7 +4468,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4474,7 +4476,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4490,7 +4492,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
